--- a/Follow-up.xlsx
+++ b/Follow-up.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camacho\Desktop\Gitlab\se-qubip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12AAD078-3A66-4B72-83CB-7A5C5240AFAB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F001E88-78C5-420B-8F21-31AB6014BC83}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10410" xr2:uid="{33A3642B-3F33-48EB-B0C1-1DE73DBDDA49}"/>
   </bookViews>
